--- a/excel/cerradas.xlsx
+++ b/excel/cerradas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Provisión</t>
   </si>
@@ -84,13 +84,73 @@
   </si>
   <si>
     <t>criticidad</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TIWS</t>
+  </si>
+  <si>
+    <t>OESTE2</t>
+  </si>
+  <si>
+    <t>NINGUNA</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>Se escucha ruido en un meeting.</t>
+  </si>
+  <si>
+    <t>24/07 - La llamada se escucha con ruido porque hay un usuario que ha accedido mediante internet y presenta pérdida de paquetes.</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>ARGENTINA CTS3000</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address not responding </t>
+  </si>
+  <si>
+    <t>27/07 - El equipo no resgistra por que será modificado por un VCF.</t>
+  </si>
+  <si>
+    <t>27/07 - El equipo no resgistra por que será modificado por un VCF.
+26/07 - Comprobamos que no está registrado. Pedimos que revisen el encendido de la sala y el cable de conexión.</t>
+  </si>
+  <si>
+    <t>Cableado CUCM en planta 4 Peñuelas</t>
+  </si>
+  <si>
+    <t>27/06- Cambio de cable de conexión (monitorizacion del puerto ok y gk ok)</t>
+  </si>
+  <si>
+    <t>25/07 - Adjuntamos correo donde aparece la conectividad entre switches planta 2 y 4.</t>
+  </si>
+  <si>
+    <t>27/07 - Se realiza cambio de cable de conexión, se comprueba uqe no hay errores de CRC tras realizar pruebas</t>
+  </si>
+  <si>
+    <t>27/07 - 25/07 - Se realiza cambio de cable de conexión, se comprueba uqe no hay errores de CRC tras realizar pruebas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -120,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -419,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +559,221 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1304619</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>43313</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1308633</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27071</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1306769</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1306769</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>43318</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
